--- a/Tableau de compétences E4.xlsx
+++ b/Tableau de compétences E4.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4t0m\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF2CBFE-4EA8-4112-949B-63D311105975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0774F072-202D-4AB5-8077-FA82C0B82E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$34</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>▢ SLAM</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio :</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -143,27 +140,12 @@
     <t>B1.6.4</t>
   </si>
   <si>
-    <t>TPs-GLPI</t>
-  </si>
-  <si>
     <t xml:space="preserve">Veille technologique </t>
   </si>
   <si>
-    <t>MOOC Cybersécurité et MOOC RGPD</t>
-  </si>
-  <si>
-    <t>B.1.2.1</t>
-  </si>
-  <si>
-    <t>B.1.3.1</t>
-  </si>
-  <si>
     <t>B1.6.2</t>
   </si>
   <si>
-    <t>B1.6.1</t>
-  </si>
-  <si>
     <t>TP-TD-AP-Cours</t>
   </si>
   <si>
@@ -210,6 +192,30 @@
   </si>
   <si>
     <t>B1.5.1/1.5.2</t>
+  </si>
+  <si>
+    <t>Travail avec Trello</t>
+  </si>
+  <si>
+    <t>09 05 2023 - 09 06 2023</t>
+  </si>
+  <si>
+    <t>08 01 2024 - 23 02 2024</t>
+  </si>
+  <si>
+    <t>Windows Server</t>
+  </si>
+  <si>
+    <t>B1.1.3</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : whit3-4t0m.github.io/erwann.github.io/</t>
+  </si>
+  <si>
+    <t>Projet GSB</t>
+  </si>
+  <si>
+    <t>B1.3.3</t>
   </si>
 </sst>
 </file>
@@ -292,7 +298,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +308,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -762,15 +774,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -804,40 +852,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,6 +883,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>256190</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400707</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>315310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connecteur droit 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF44954-41ED-715B-3B09-4EC8583BB2BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="1701362"/>
+          <a:ext cx="144517" cy="137948"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1148,10 +1231,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AQ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1164,56 +1247,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42" t="s">
+      <c r="A3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="34"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1225,63 +1308,63 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="B6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>21</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>22</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1320,16 +1403,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="A8" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1368,7 +1451,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="14"/>
@@ -1415,7 +1498,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="15"/>
@@ -1423,8 +1506,8 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="44" t="s">
-        <v>28</v>
+      <c r="H10" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1464,17 +1547,15 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="15"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
       <c r="I11"/>
@@ -1515,7 +1596,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
@@ -1523,8 +1604,8 @@
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="44" t="s">
-        <v>34</v>
+      <c r="H12" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1564,17 +1645,17 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="44" t="s">
-        <v>35</v>
-      </c>
+      <c r="H13" s="16"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1612,11 +1693,15 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
@@ -1791,15 +1876,17 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1836,17 +1923,19 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1885,11 +1974,13 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
@@ -1932,15 +2023,17 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="46" t="s">
-        <v>40</v>
+      <c r="D21" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
       <c r="I21"/>
@@ -1980,19 +2073,13 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="16"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -2037,7 +2124,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="45"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="16"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -2165,15 +2252,17 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2210,17 +2299,19 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2259,11 +2350,13 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
@@ -2306,14 +2399,16 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="G29" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="H29" s="16"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -2353,16 +2448,18 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="D30" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="46" t="s">
-        <v>46</v>
-      </c>
+      <c r="F30" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="15"/>
       <c r="H30" s="16"/>
       <c r="I30"/>
       <c r="J30"/>
@@ -2406,14 +2503,12 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="47" t="s">
-        <v>50</v>
-      </c>
+      <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="H31" s="16"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -2452,17 +2547,13 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="A32" s="9"/>
       <c r="B32" s="8"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="47" t="s">
-        <v>51</v>
-      </c>
+      <c r="G32" s="15"/>
       <c r="H32" s="16"/>
       <c r="I32"/>
       <c r="J32"/>
@@ -2500,15 +2591,15 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2545,15 +2636,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2590,51 +2681,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-      <c r="AN35"/>
-      <c r="AO35"/>
-      <c r="AP35"/>
-      <c r="AQ35"/>
-    </row>
+    <row r="35" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2680,31 +2727,42 @@
     <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C3B3A4F7AF0524468A0122AE5CAC3A63" ma:contentTypeVersion="5" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="14943a38f3f75424c2662de040ab2b6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07ce9906-2010-497a-a1a4-b77ce3020425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="801fbb00e2f7f63a195595bf049f6f31" ns2:_="">
     <xsd:import namespace="07ce9906-2010-497a-a1a4-b77ce3020425"/>
@@ -2854,15 +2912,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2872,13 +2921,27 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B372BA5-5049-4C64-9719-0BBB6AEC3D16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6989D05B-E0A4-4F8A-9C89-5DD810B0AE47}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6989D05B-E0A4-4F8A-9C89-5DD810B0AE47}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B372BA5-5049-4C64-9719-0BBB6AEC3D16}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="07ce9906-2010-497a-a1a4-b77ce3020425"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2890,6 +2953,7 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="4281a5ee-5d90-460a-9a81-a137e5bb9fbc"/>
     <ds:schemaRef ds:uri="3ddcc174-202f-4261-a7eb-307f46674a23"/>
+    <ds:schemaRef ds:uri="07ce9906-2010-497a-a1a4-b77ce3020425"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Tableau de compétences E4.xlsx
+++ b/Tableau de compétences E4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4t0m\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github pf\erwann version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0774F072-202D-4AB5-8077-FA82C0B82E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAE8E6B-02AE-4A60-90FB-63213A37DFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,12 +46,6 @@
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>Option :</t>
   </si>
   <si>
@@ -216,6 +210,12 @@
   </si>
   <si>
     <t>B1.3.3</t>
+  </si>
+  <si>
+    <t>Centre de formation : Sup'Chassagnes</t>
+  </si>
+  <si>
+    <t>N° candidat :  02046086208</t>
   </si>
 </sst>
 </file>
@@ -786,6 +786,9 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,6 +816,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -856,15 +865,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1233,8 +1233,8 @@
   </sheetPr>
   <dimension ref="A1:AQ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1247,124 +1247,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="34"/>
+      <c r="A3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="35"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="12" t="s">
+      <c r="H4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+    </row>
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="B6" s="46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>21</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1403,16 +1403,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
+      <c r="A8" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="14"/>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="15"/>
@@ -1507,7 +1507,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1547,14 +1547,14 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
@@ -1605,7 +1605,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1645,11 +1645,11 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -1694,13 +1694,13 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -1877,16 +1877,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
+      <c r="A18" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1925,12 +1925,12 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="49"/>
+        <v>29</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="52"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -1974,12 +1974,12 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="15"/>
       <c r="D20" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -2023,16 +2023,16 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
@@ -2253,16 +2253,16 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
+      <c r="A26" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2301,12 +2301,12 @@
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="51"/>
+        <v>33</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="37"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -2350,12 +2350,12 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="15"/>
       <c r="D28" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="15"/>
@@ -2407,7 +2407,7 @@
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29"/>
@@ -2448,16 +2448,16 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="15"/>
       <c r="D30" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="16"/>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="15"/>
@@ -2507,7 +2507,7 @@
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31"/>
